--- a/data_excel/192.xlsx
+++ b/data_excel/192.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>媽媽</t>
   </si>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +545,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,7 +647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -663,12 +667,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>

--- a/data_excel/192.xlsx
+++ b/data_excel/192.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>媽媽</t>
   </si>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +207,21 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,9 +260,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -544,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -867,7 +892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -878,15 +903,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">

--- a/data_excel/192.xlsx
+++ b/data_excel/192.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>媽媽</t>
   </si>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,8 +626,8 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>

--- a/data_excel/192.xlsx
+++ b/data_excel/192.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>媽媽</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>吃</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <t>了</t>
@@ -183,6 +180,14 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +579,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -636,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,18 +706,18 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -720,10 +725,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -731,13 +736,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -761,7 +766,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -772,7 +777,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -783,18 +788,18 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -805,7 +810,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -822,23 +827,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
-        <v>27</v>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -846,10 +851,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -857,13 +862,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
         <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -887,7 +892,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -898,10 +903,10 @@
     </row>
     <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -909,24 +914,24 @@
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
         <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,7 +947,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -950,7 +955,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
